--- a/BOOMバウンド_.xlsx
+++ b/BOOMバウンド_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲームプログラミング　チーム制作\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C8BFE7-6B5C-4800-AD28-416A96020BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4211AE-1ED7-4CAE-9C6E-73FAD8BDD616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5316" yWindow="0" windowWidth="11304" windowHeight="10608" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
   </bookViews>
   <sheets>
     <sheet name="タスクリスト" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="277">
   <si>
     <t>BOOMバウンド仕様書</t>
     <rPh sb="8" eb="11">
@@ -1636,74 +1636,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・弾の当たり判定がプレイヤーの当たり判定と重なった時、当たったプレイヤーを倒してください</t>
-    <rPh sb="1" eb="2">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>タオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プレイヤーの当たり判定が弾の当たり判定と重なった時は、爆発するイラストに差し替えてプレイヤーは消してください</t>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バクハツ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このシートでは、弾に関する仕様について記載します。</t>
     <rPh sb="8" eb="9">
       <t>タマ</t>
@@ -3892,6 +3824,73 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーが弾に当たり、残りのライフがない場合、爆発するイラストに差し替えてプレイヤーは消してください</t>
+    <rPh sb="7" eb="8">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーに弾が当たったら、弾を即座に消してください</t>
+    <rPh sb="7" eb="8">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソクザ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーにレールガンが当たっても、消さなくてOKです(ワンパン)</t>
+    <rPh sb="19" eb="20">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レールガンの一時的使用可能【10秒】</t>
+    <rPh sb="6" eb="9">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>シヨウカノウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -25916,7 +25915,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C417A5-0516-422E-A4D8-6BA38B16BCCD}">
-  <dimension ref="B1:AM34"/>
+  <dimension ref="B1:AM35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25934,7 +25933,7 @@
     </row>
     <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -25944,7 +25943,7 @@
     </row>
     <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -25954,12 +25953,12 @@
     </row>
     <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -25969,25 +25968,25 @@
     </row>
     <row r="16" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
+        <v>192</v>
+      </c>
+      <c r="T19" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="20" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>80</v>
@@ -25995,22 +25994,22 @@
     </row>
     <row r="21" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM24" s="3" t="s">
         <v>80</v>
@@ -26018,41 +26017,46 @@
     </row>
     <row r="25" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="6" t="s">
+      <c r="E32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -26531,7 +26535,7 @@
         <v>78</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26587,7 +26591,7 @@
         <v>84</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26626,7 +26630,7 @@
         <v>89</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:26" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26660,7 +26664,7 @@
         <v>90</v>
       </c>
       <c r="Z80" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:27" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26684,7 +26688,7 @@
         <v>95</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26793,7 +26797,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEF3D48-989C-4B90-AA3D-AB3FF0B7A686}">
-  <dimension ref="B1:AB88"/>
+  <dimension ref="B1:AB89"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26856,12 +26860,12 @@
     </row>
     <row r="18" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26882,71 +26886,71 @@
     </row>
     <row r="30" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="4:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P35" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="4:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="4:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="4:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="4:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I43" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="X54" s="3"/>
     </row>
     <row r="55" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X60" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="3:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F69" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="3:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26955,24 +26959,24 @@
     </row>
     <row r="71" spans="3:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F71" s="3"/>
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="3:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F72" s="3"/>
       <c r="L72" s="3"/>
       <c r="Y72" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="3:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>135</v>
@@ -26980,38 +26984,38 @@
     </row>
     <row r="76" spans="3:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C76" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="3:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="3:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E78" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AB78" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="3:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F79" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="3:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G80" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C81" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27019,28 +27023,31 @@
     </row>
     <row r="83" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C83" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T83" s="3"/>
     </row>
     <row r="84" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D84" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T85" s="3"/>
     </row>
     <row r="86" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C86" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="6" t="s">
+      <c r="T86" s="3"/>
+    </row>
+    <row r="87" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -27096,7 +27103,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C9E95-6BDE-49B3-A64F-91FD6FFCEF0F}">
-  <dimension ref="B1:AA79"/>
+  <dimension ref="B1:AA80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27114,7 +27121,7 @@
     </row>
     <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27154,7 +27161,7 @@
     </row>
     <row r="17" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27164,7 +27171,7 @@
     </row>
     <row r="19" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27174,7 +27181,7 @@
     </row>
     <row r="23" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>134</v>
@@ -27182,12 +27189,12 @@
     </row>
     <row r="25" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27197,17 +27204,17 @@
     </row>
     <row r="29" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AA31" s="3" t="s">
         <v>80</v>
@@ -27230,97 +27237,102 @@
     </row>
     <row r="52" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
-        <v>140</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D56" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E58" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C62" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C64" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C68" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D69" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E70" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D73" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F75" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G76" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="79" spans="2:18" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C78" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -27352,7 +27364,7 @@
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27362,7 +27374,7 @@
     </row>
     <row r="9" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27372,17 +27384,17 @@
     </row>
     <row r="11" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27392,86 +27404,86 @@
     </row>
     <row r="17" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D23" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D28" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27479,34 +27491,34 @@
     </row>
     <row r="40" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H40" t="s">
+        <v>161</v>
+      </c>
+      <c r="O40" t="s">
+        <v>162</v>
+      </c>
+      <c r="V40" t="s">
         <v>163</v>
       </c>
-      <c r="O40" t="s">
-        <v>164</v>
-      </c>
-      <c r="V40" t="s">
-        <v>165</v>
-      </c>
       <c r="AC40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AD41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="2:30" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27542,7 +27554,7 @@
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27552,40 +27564,40 @@
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27619,44 +27631,44 @@
     </row>
     <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31"/>
       <c r="C31" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27690,43 +27702,43 @@
     </row>
     <row r="43" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D49" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27770,7 +27782,7 @@
     </row>
     <row r="63" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="X63" s="3"/>
     </row>
